--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>gases</t>
   </si>
@@ -37,6 +37,12 @@
   </si>
   <si>
     <t>sectors_total</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>caption</t>
   </si>
 </sst>
 </file>
@@ -354,37 +360,45 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
     </row>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -24,15 +24,9 @@
     <t>gases</t>
   </si>
   <si>
-    <t>Total anthropogenic GHG emissions (GtCO2-eq yr-12 ) 1990-2019: CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
-  </si>
-  <si>
     <t>regions</t>
   </si>
   <si>
-    <t>Change in regional GHG emissions and rates of change compatible with warming targets. Panel a: Regional GHG emission trends (in GtCO2-eq yr-1 (GWP100 AR6)) for the time period 1990–2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panel b: Historical GHG emissions change by country (2010–2019), compared to rates of reduction compatible with 1.5°C and 2°C warming targets, assessed via reduction rates in AR6 IAM scenarios over the period 2020-2040. Individual circles depict countries (scaled by total emissions in 2019) or scenarios, horizontal lines depict the average change by region or scenario category. Panel b excludes CO2 LULUCF due to a lack of consistent national data.</t>
-  </si>
-  <si>
     <t>sectors_direct_indirect</t>
   </si>
   <si>
@@ -43,14 +37,68 @@
   </si>
   <si>
     <t>caption</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Total anthropogenic GHG emissions (GtCO2-eq yr-12 ) 1990-2019</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Change in regional GHG emissions and rates of change compatible with warming targets</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Panel a: Regional GHG emission trends (in GtCO2-eq yr-1 (GWP100 AR6)) for the time period 1990–2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panel b: Historical GHG emissions change by country (2010–2019), compared to rates of reduction compatible with 1.5°C and 2°C warming targets, assessed via reduction rates in AR6 IAM scenarios over the period 2020-2040. Individual circles depict countries (scaled by total emissions in 2019) or scenarios, horizontal lines depict the average change by region or scenario category. Panel b excludes CO2 LULUCF due to a lack of consistent national data.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -363,17 +411,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -381,25 +429,25 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -19,15 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>gases</t>
   </si>
   <si>
     <t>regions</t>
-  </si>
-  <si>
-    <t>sectors_direct_indirect</t>
   </si>
   <si>
     <t>sectors_total</t>
@@ -83,6 +80,12 @@
       </rPr>
       <t>. Panel a: Regional GHG emission trends (in GtCO2-eq yr-1 (GWP100 AR6)) for the time period 1990–2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panel b: Historical GHG emissions change by country (2010–2019), compared to rates of reduction compatible with 1.5°C and 2°C warming targets, assessed via reduction rates in AR6 IAM scenarios over the period 2020-2040. Individual circles depict countries (scaled by total emissions in 2019) or scenarios, horizontal lines depict the average change by region or scenario category. Panel b excludes CO2 LULUCF due to a lack of consistent national data.</t>
     </r>
+  </si>
+  <si>
+    <t>direct_indirect</t>
+  </si>
+  <si>
+    <t>Get from SPM</t>
   </si>
 </sst>
 </file>
@@ -411,17 +414,17 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -429,7 +432,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -437,17 +440,20 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
   <si>
     <t>gases</t>
   </si>
@@ -36,56 +36,142 @@
     <t>caption</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Total anthropogenic GHG emissions (GtCO2-eq yr-12 ) 1990-2019</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Change in regional GHG emissions and rates of change compatible with warming targets</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. Panel a: Regional GHG emission trends (in GtCO2-eq yr-1 (GWP100 AR6)) for the time period 1990–2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panel b: Historical GHG emissions change by country (2010–2019), compared to rates of reduction compatible with 1.5°C and 2°C warming targets, assessed via reduction rates in AR6 IAM scenarios over the period 2020-2040. Individual circles depict countries (scaled by total emissions in 2019) or scenarios, horizontal lines depict the average change by region or scenario category. Panel b excludes CO2 LULUCF due to a lack of consistent national data.</t>
-    </r>
-  </si>
-  <si>
     <t>direct_indirect</t>
   </si>
   <si>
-    <t>Get from SPM</t>
+    <t>sectors_subsectors</t>
+  </si>
+  <si>
+    <t>sectors_energy</t>
+  </si>
+  <si>
+    <t>sectors_energy_summary</t>
+  </si>
+  <si>
+    <t>sectors_energy_kaya</t>
+  </si>
+  <si>
+    <t>sectors_industry</t>
+  </si>
+  <si>
+    <t>sectors_industry_summary</t>
+  </si>
+  <si>
+    <t>sectors_industry_kaya</t>
+  </si>
+  <si>
+    <t>sectors_buildings</t>
+  </si>
+  <si>
+    <t>sectors_buildings_summary</t>
+  </si>
+  <si>
+    <t>sectors_buildings_kaya</t>
+  </si>
+  <si>
+    <t>sectors_transport</t>
+  </si>
+  <si>
+    <t>sectors_transport_summary</t>
+  </si>
+  <si>
+    <t>sectors_transport_kaya</t>
+  </si>
+  <si>
+    <t>sectors_afolu</t>
+  </si>
+  <si>
+    <t>sectors_afolu_summary</t>
+  </si>
+  <si>
+    <t>sectors_afolu_kaya</t>
+  </si>
+  <si>
+    <t>title</t>
+  </si>
+  <si>
+    <t>CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
+  </si>
+  <si>
+    <t>Total anthropogenic GHG emissions (GtCO2-eq yr-12 ) 1990-2019</t>
+  </si>
+  <si>
+    <t>Panel a: Regional GHG emission trends (in GtCO2-eq yr-1 (GWP100 AR6)) for the time period 1990–2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panel b: Historical GHG emissions change by country (2010–2019), compared to rates of reduction compatible with 1.5°C and 2°C warming targets, assessed via reduction rates in AR6 IAM scenarios over the period 2020-2040. Individual circles depict countries (scaled by total emissions in 2019) or scenarios, horizontal lines depict the average change by region or scenario category. Panel b excludes CO2 LULUCF due to a lack of consistent national data.</t>
+  </si>
+  <si>
+    <t>Change in regional GHG emissions and rates of change compatible with warming targets</t>
+  </si>
+  <si>
+    <t>Panel a shows total global anthropogenic GHG emissions divided into major sectors. Panel b shows regional emission trends in the years 1990, 2000, 2010, 2018. This figure shows the direct (scope 1) allocation of emissions to sectors.</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for all sectors</t>
+  </si>
+  <si>
+    <t>Global greenhouse gas emissions and their sources</t>
+  </si>
+  <si>
+    <t>The stacked bar on the left indicates total global greenhouse gas emissions in 2018, split by sectors based on direct (scope 1) emissions accounting. The arrows shown next to the electricity and heat sector depict the reallocation of these emissions to final sectors as indirect (scope 2) emissions. This increases the contribution to global emissions from the industry and buildings sector (central stacked bar). The stacked bar on the far right indicates the shares of subsectors in global emissions when indirect emissions are included.</t>
+  </si>
+  <si>
+    <t>Total global emissions by highest emitting subsectors</t>
+  </si>
+  <si>
+    <t>Only 15 subsectors out of 27 are shown. Indirect emissions from electricity and heat production are reallocated to subsectors as indicated. Growth rates in the left-hand panel are average annual rates across 2010-2018.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panel a shows total global energy systems GHG emissions divided into major subsectors. Panel b shows regional emission trends in the years 1990, 2000, 2010, 2018. This figure shows the direct (scope 1) allocation of emissions to sectors. Note that emissions from the electricity and heat subsector are allocated as indirect (scope 2) emissions to the buildings, industry and transport sectors in the following sections (thus double counting between these respective sector figures). </t>
+  </si>
+  <si>
+    <t>The indicated growth rates are averaged across the years 2010-2018. Note that the energy term by itself is not part of the decomposition, but is depicted here for comparison with the Kaya factors. This figure is for fossil fuel CO2 emissions only, in order to ensure compatibility with underlying energy data.</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for the energy sector</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for the industry sector</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for the buildings sector</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for the transport sector</t>
+  </si>
+  <si>
+    <t>Kaya decomposition of CO2 emissions drivers for the energy systems sector</t>
+  </si>
+  <si>
+    <t>Panel a shows total global industry GHG emissions divided into major subsectors. Panel b shows regional emission trends in the years 1990, 2000, 2010, 2018. Indirect emissions from the electricity and heat subsector are shown here in grey.</t>
+  </si>
+  <si>
+    <t>Kaya decomposition of CO2 emissions drivers for the industry sector (direct emissions only)</t>
+  </si>
+  <si>
+    <t>Kaya decomposition of CO2 emissions drivers for the buildings sector (direct emissions only)</t>
+  </si>
+  <si>
+    <t>The indicated growth rates are averaged across the years 2010-2018. Note that the energy term by itself is not part of the decomposition, but is depicted here for comparison with the Kaya factors. This figure is for fossil fuel CO2 emissions only (indirect CO2 emissions and process-related and waste emissions are excluded) in order to ensure compatibility with underlying energy data.</t>
+  </si>
+  <si>
+    <t>The indicated growth rates are averaged across the years 2010-2018. Note that the energy term by itself is not part of the decomposition, but is depicted here for comparison with the Kaya factors. This figure is for fossil fuel CO2 emissions only (indirect CO2 emissions are excluded) in order to ensure compatibility with underlying energy data.</t>
+  </si>
+  <si>
+    <t>Panel b shows emissions at the years 1990, 2000, 2010, 2018. Indirect emissions from electricity and heat consumed in transport are shown here, but are not added to the transport sector totals in figure x3.1 (total emissions for all sectors). International aviation and shipping is included in panel a, but excluded from panel b.</t>
+  </si>
+  <si>
+    <t>Kaya decomposition of CO2 emissions drivers for the transport sector</t>
+  </si>
+  <si>
+    <t>Global and regional GHG emissions trends for the AFOLU sector</t>
+  </si>
+  <si>
+    <t>Panel b shows emissions at the years 1990, 2000, 2010, 2018.</t>
+  </si>
+  <si>
+    <t>Kaya decomposition of GHG emissions drivers for the AFOLU sector</t>
+  </si>
+  <si>
+    <t>Reproduced from Hong et al (Hong et al 2021).The indicated growth rates are averaged across the years 2010-2017. In contrast to other kaya figures, here we show total GHG emissions for the AFOLU sector.</t>
   </si>
 </sst>
 </file>
@@ -101,12 +187,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -129,8 +213,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -411,49 +496,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,9 +111,6 @@
     <t>Global greenhouse gas emissions and their sources</t>
   </si>
   <si>
-    <t>The stacked bar on the left indicates total global greenhouse gas emissions in 2018, split by sectors based on direct (scope 1) emissions accounting. The arrows shown next to the electricity and heat sector depict the reallocation of these emissions to final sectors as indirect (scope 2) emissions. This increases the contribution to global emissions from the industry and buildings sector (central stacked bar). The stacked bar on the far right indicates the shares of subsectors in global emissions when indirect emissions are included.</t>
-  </si>
-  <si>
     <t>Total global emissions by highest emitting subsectors</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>Reproduced from Hong et al (Hong et al 2021).The indicated growth rates are averaged across the years 2010-2017. In contrast to other kaya figures, here we show total GHG emissions for the AFOLU sector.</t>
+  </si>
+  <si>
+    <t>The stacked bar on the left indicates total global greenhouse gas emissions in 2019, split by sectors based on direct (scope 1) emissions accounting. The arrows shown next to the electricity and heat sector depict the reallocation of these emissions to final sectors as indirect (scope 2) emissions. This increases the contribution to global emissions from the industry and buildings sector (central stacked bar). This reallocation does not imply full lifecycle emissions – see Annex B {A.B.8} for more details. The stacked bar on the far right indicates the shares of subsectors in global emissions when indirect emissions are included. GHG emissions are reported in GtCO2-eq, based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Working Group 1 Report.</t>
   </si>
 </sst>
 </file>
@@ -498,13 +498,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -515,7 +515,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -526,7 +526,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -537,7 +537,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -545,10 +545,10 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -559,151 +559,151 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
         <v>31</v>
       </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" t="s">
         <v>47</v>
       </c>
-      <c r="C19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" t="s">
         <v>49</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
   <si>
     <t>gases</t>
   </si>
@@ -172,6 +172,15 @@
   </si>
   <si>
     <t>The stacked bar on the left indicates total global greenhouse gas emissions in 2019, split by sectors based on direct (scope 1) emissions accounting. The arrows shown next to the electricity and heat sector depict the reallocation of these emissions to final sectors as indirect (scope 2) emissions. This increases the contribution to global emissions from the industry and buildings sector (central stacked bar). This reallocation does not imply full lifecycle emissions – see Annex B {A.B.8} for more details. The stacked bar on the far right indicates the shares of subsectors in global emissions when indirect emissions are included. GHG emissions are reported in GtCO2-eq, based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Working Group 1 Report.</t>
+  </si>
+  <si>
+    <t>covid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Global carbon emissions in 2020 and the impact of COVID-19 </t>
+  </si>
+  <si>
+    <t>Panel a depicts carbon emissions from fossil fuel and industry over the past 5 decades. The single year decline in emissions following major economic and geopolitical events is shown, as well as the decline recorded in 4 different datasets for emissions in 2020 compared to 2019. Panel b depicts the perturbation of daily carbon emissions in 2020 compared to 2019, showing the impact of COVID-19 lockdown policies.</t>
   </si>
 </sst>
 </file>
@@ -496,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,159 +559,170 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C18" s="1"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>48</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C22" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
   <si>
     <t>gases</t>
   </si>
@@ -181,6 +181,15 @@
   </si>
   <si>
     <t>Panel a depicts carbon emissions from fossil fuel and industry over the past 5 decades. The single year decline in emissions following major economic and geopolitical events is shown, as well as the decline recorded in 4 different datasets for emissions in 2020 compared to 2019. Panel b depicts the perturbation of daily carbon emissions in 2020 compared to 2019, showing the impact of COVID-19 lockdown policies.</t>
+  </si>
+  <si>
+    <t>equity</t>
+  </si>
+  <si>
+    <t>Historic and current GHG emissions mirror patterns of global inequality</t>
+  </si>
+  <si>
+    <t>Panel a depicts the historical contribution of regions to cumulative land use, land use change and forestry (LULUCF) CO2 emissions and Fossil fuel and industry (FFI) CO2 emissions. Panel b depicts the current contribution of regions to global population, CO2 and GHG emissions. Regional fractions are shown relative to the global total for each category.</t>
   </si>
 </sst>
 </file>
@@ -505,7 +514,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
@@ -559,170 +568,181 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B5" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-      <c r="C10" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s">
-        <v>43</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C19" s="1"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
     </row>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -90,9 +90,6 @@
     <t>title</t>
   </si>
   <si>
-    <t>CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
-  </si>
-  <si>
     <t>Total anthropogenic GHG emissions (GtCO2-eq yr-12 ) 1990-2019</t>
   </si>
   <si>
@@ -190,6 +187,9 @@
   </si>
   <si>
     <t>Panel a depicts the historical contribution of regions to cumulative land use, land use change and forestry (LULUCF) CO2 emissions and Fossil fuel and industry (FFI) CO2 emissions. Panel b depicts the current contribution of regions to global population, CO2 and GHG emissions. Regional fractions are shown relative to the global total for each category.</t>
+  </si>
+  <si>
+    <t>CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). CO2 LULUCF emissions are net and include gross removals as well as emissions. F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
   </si>
 </sst>
 </file>
@@ -517,7 +517,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,10 +538,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -549,10 +549,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -560,32 +560,32 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>53</v>
+      </c>
+      <c r="B5" t="s">
         <v>54</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>55</v>
-      </c>
-      <c r="C5" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>52</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -593,10 +593,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -604,10 +604,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
         <v>30</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,10 +615,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,10 +631,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -658,10 +658,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -669,10 +669,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,10 +685,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,10 +696,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -713,10 +713,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -724,10 +724,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
         <v>46</v>
-      </c>
-      <c r="C21" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" t="s">
         <v>48</v>
-      </c>
-      <c r="C23" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
   <si>
     <t>gases</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). CO2 LULUCF emissions are net and include gross removals as well as emissions. F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
+  </si>
+  <si>
+    <t>regions_countries</t>
+  </si>
+  <si>
+    <t>Change in regional GHGs from multiple perspectives and their underlying drivers</t>
+  </si>
+  <si>
+    <t>Panel a: Regional GHG emission trends (in GtCO2eq yr-1) for the time period 1990-2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panels b and c: Changes in GHG emissions for largest emitters (75% of global emissions) for the post-AR5 reporting period 2010-2019 in relative (% annual change) and absolute terms (GtCO2eq). Panels d and e: GHG emissions per capita and per GDP in 2019 for the largest emitters (75% of global emissions). GDP estimated using constant international purchasing power parity (USD 2017). Emissions are converted into CO2-equivalents based on global warming potentials with a 100 year time horizon (GWP-100) from the IPCC Sixth Assessment Report. The yellow dots represent the emissions data according to the national inventories reported by the Annex I countries of the Kyoto Protocol to the UNFCCC (Gütschow et al., 2021; Louise Jeffery et al., 2018).  LULUCF CO2 emissions are included in panel a, based on the average of three bookkeeping models (see data explanation in section 2.2 introduction), but are excluded in panels b to e due to a lack of regional resolution.</t>
   </si>
 </sst>
 </file>
@@ -514,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -568,181 +577,192 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
-      <c r="C17" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>42</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>47</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C24" t="s">
         <v>48</v>
       </c>
     </row>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -198,7 +198,7 @@
     <t>Change in regional GHGs from multiple perspectives and their underlying drivers</t>
   </si>
   <si>
-    <t>Panel a: Regional GHG emission trends (in GtCO2eq yr-1) for the time period 1990-2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panels b and c: Changes in GHG emissions for largest emitters (75% of global emissions) for the post-AR5 reporting period 2010-2019 in relative (% annual change) and absolute terms (GtCO2eq). Panels d and e: GHG emissions per capita and per GDP in 2019 for the largest emitters (75% of global emissions). GDP estimated using constant international purchasing power parity (USD 2017). Emissions are converted into CO2-equivalents based on global warming potentials with a 100 year time horizon (GWP-100) from the IPCC Sixth Assessment Report. The yellow dots represent the emissions data according to the national inventories reported by the Annex I countries of the Kyoto Protocol to the UNFCCC (Gütschow et al., 2021; Louise Jeffery et al., 2018).  LULUCF CO2 emissions are included in panel a, based on the average of three bookkeeping models (see data explanation in section 2.2 introduction), but are excluded in panels b to e due to a lack of regional resolution.</t>
+    <t>Panel a: Regional GHG emission trends (in GtCO2eq yr-1) for the time period 1990-2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panels b and c: Changes in GHG emissions for the 20 largest emitters (as of 2019) for the post-AR5 reporting period 2010-2019 in relative (% annual change) and absolute terms (GtCO2eq). Panels d and e: GHG emissions per capita and per GDP in 2019 for the 20 largest emitters (as of 2019). GDP estimated using constant international purchasing power parity (USD 2017). Emissions are converted into CO2-equivalents based on global warming potentials with a 100 year time horizon (GWP-100) from the IPCC Sixth Assessment Report. The yellow dots represent the emissions data according to the national inventories reported by the Annex I countries of the Kyoto Protocol to the UNFCCC (Gütschow et al., 2021; Louise Jeffery et al., 2018).  LULUCF CO2 emissions are included in panel a, based on the average of three bookkeeping models (see data explanation in section 2.2 introduction), but are excluded in panels b to e due to a lack of regional resolution.</t>
   </si>
 </sst>
 </file>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="975" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>gases</t>
   </si>
@@ -199,6 +199,15 @@
   </si>
   <si>
     <t>Panel a: Regional GHG emission trends (in GtCO2eq yr-1) for the time period 1990-2019. GHG emissions from international aviation (AIR) and shipping (SEA) are not assigned to individual countries and shown separately. Panels b and c: Changes in GHG emissions for the 20 largest emitters (as of 2019) for the post-AR5 reporting period 2010-2019 in relative (% annual change) and absolute terms (GtCO2eq). Panels d and e: GHG emissions per capita and per GDP in 2019 for the 20 largest emitters (as of 2019). GDP estimated using constant international purchasing power parity (USD 2017). Emissions are converted into CO2-equivalents based on global warming potentials with a 100 year time horizon (GWP-100) from the IPCC Sixth Assessment Report. The yellow dots represent the emissions data according to the national inventories reported by the Annex I countries of the Kyoto Protocol to the UNFCCC (Gütschow et al., 2021; Louise Jeffery et al., 2018).  LULUCF CO2 emissions are included in panel a, based on the average of three bookkeeping models (see data explanation in section 2.2 introduction), but are excluded in panels b to e due to a lack of regional resolution.</t>
+  </si>
+  <si>
+    <t>long_term</t>
+  </si>
+  <si>
+    <t>Historic anthropogenic CO2 emission and cumulative CO2 emissions (1850-2019) as well as remaining carbon budgets for limiting warming to 1.5°C and 2°C</t>
+  </si>
+  <si>
+    <t>Panel a shows historic annual anthropogenic CO2 emissions (GtCO2 yr-1) by fuel type and process. Panel b shows historic cumulative anthropogenic CO2 emissions for the periods 1850-1989, 1990-2009, and 2010-2019 as well as remaining future carbon budgets as of 1.1.2020 to limit warming to 1.5°C and 2°C at the 67th percentile of the transient climate response to cumulative CO2 emissions. The whiskers indicate a budget uncertainty of ±220 GtCO2eq for each budget and the aggregate uncertainty range at 1 standard deviation for historical cumulative CO2 emissions, consistent with Working Group 1. Sources: Friedlingstein et al. (2020) and Canadell et al. (2021).</t>
   </si>
 </sst>
 </file>
@@ -523,10 +532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -766,6 +775,17 @@
         <v>48</v>
       </c>
     </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>60</v>
+      </c>
+      <c r="B25" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Results/Plots/captions.xlsx
+++ b/Results/Plots/captions.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="975" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="1950" yWindow="0" windowWidth="22260" windowHeight="12645"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -183,12 +183,6 @@
     <t>equity</t>
   </si>
   <si>
-    <t>Historic and current GHG emissions mirror patterns of global inequality</t>
-  </si>
-  <si>
-    <t>Panel a depicts the historical contribution of regions to cumulative land use, land use change and forestry (LULUCF) CO2 emissions and Fossil fuel and industry (FFI) CO2 emissions. Panel b depicts the current contribution of regions to global population, CO2 and GHG emissions. Regional fractions are shown relative to the global total for each category.</t>
-  </si>
-  <si>
     <t>CO2 from fossil fuel combustion and industrial processes (FFI); CO2 from Land use, land use change and forestry (CO2 LULUCF); methane (CH4); nitrous oxide (N2O); fluorinated gases (F-gases). CO2 LULUCF emissions are net and include gross removals as well as emissions. F-gas emissions do not include Montreal gases (CFCs, HCFCs) which reached a peak in the 1990s but have since declined. Panel a: Aggregate GHG emission trends by groups of gases reported in GtCO2-eq converted based on global warming potentials with a 100-year time horizon (GWP-100) from the IPCC Sixth Assessment Report Working Group 1 (REF Chapter 7). Panel b: Waterfall diagrams juxtaposing GHG emissions for the most recent year 2019 in CO2 equivalent units using GWP-100  values from the IPCC’s Sixth, Fifth and Second Assessment Reports, respectively. Error bars show the associated uncertainties at a 90% confidence interval. Panel c: Individual trends in CO2-FFI, CO2-FOLU, CH4 and N2O emissions in (original) mass units 10 (Gt yr-1) for the period 1990–2019, normalised relative to 1 in 1990. Note the different scale for F-gas emissions compared to other gases, highlighting its very rapid growth from a low base.</t>
   </si>
   <si>
@@ -208,6 +202,12 @@
   </si>
   <si>
     <t>Panel a shows historic annual anthropogenic CO2 emissions (GtCO2 yr-1) by fuel type and process. Panel b shows historic cumulative anthropogenic CO2 emissions for the periods 1850-1989, 1990-2009, and 2010-2019 as well as remaining future carbon budgets as of 1.1.2020 to limit warming to 1.5°C and 2°C at the 67th percentile of the transient climate response to cumulative CO2 emissions. The whiskers indicate a budget uncertainty of ±220 GtCO2eq for each budget and the aggregate uncertainty range at 1 standard deviation for historical cumulative CO2 emissions, consistent with Working Group 1. Sources: Friedlingstein et al. (2020) and Canadell et al. (2021).</t>
+  </si>
+  <si>
+    <t>Panel a shows the regional proportion (%) of total global population or emissions in 2018 or 2019, for five categories: population (persons), consumption-based CO2-FFI emissions (GtCO2), production-based CO2-FFI emissions (GtCO2), production-based GHG emissions excluding CO2-LULUCF (GtCO2eq), and production-based GHG emissions including CO2-LULUCF (GtCO2eq). Panel b shows the regional proportion (%) of total cumulative production-based CO2 emissions from 1850 to 2019, including and excluding CO2-LULUCF (GtCO2). In the lower panels the proportion of each population or emissions category attributable to Least Developed Countries (LDCs) and Small Island Developing States (SIDS) are shown, where available (CO2-LULUCF data is not available for these regions). These regions cut across geographic groupings and are not visible in other figures on emissions trends. GHG emissions are converted into CO2-equivalents based on global warming potentials with a 100 year time horizon (GWP-100) from the IPCC Sixth Assessment Report (Forster et al., 2021a).</t>
+  </si>
+  <si>
+    <t>Different perspectives on historic emissions and equity</t>
   </si>
 </sst>
 </file>
@@ -534,8 +534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
         <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -586,24 +586,24 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" t="s">
         <v>57</v>
       </c>
-      <c r="B5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -777,13 +777,13 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C25" t="s">
         <v>60</v>
-      </c>
-      <c r="B25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C25" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>
